--- a/others/Experiment Results.xlsx
+++ b/others/Experiment Results.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B930573-E89B-4693-88EE-F2ABEE60DAC5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA45F700-37B5-441A-B98D-E37C36597A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="41">
   <si>
     <t>CNV单目标分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,62 @@
   <si>
     <t>UNet-add</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUNet-add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ResUNet-concat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unet-se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unet-spp-se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilationResNet+se+sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilationResUNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilationResUNet+sp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dilationResUNet+se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7635±0.0999</t>
+  </si>
+  <si>
+    <t>0.7244±0.0955</t>
+  </si>
+  <si>
+    <t>0.8512±0.0436</t>
+  </si>
+  <si>
+    <t>0.9966±0.0025</t>
+  </si>
+  <si>
+    <t>0.8692±0.0303</t>
+  </si>
+  <si>
+    <t>0.8312±0.0305</t>
+  </si>
+  <si>
+    <t>0.8872±0.0191</t>
+  </si>
+  <si>
+    <t>0.9987±0.0009</t>
   </si>
 </sst>
 </file>
@@ -321,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -358,6 +414,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -370,17 +444,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -414,6 +479,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -909,21 +977,21 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="16"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="16"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="16"/>
-      <c r="AA6" s="17"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="23"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -936,20 +1004,20 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="16" t="s">
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="18"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="23"/>
+      <c r="Z7" s="24"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
@@ -963,18 +1031,18 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="16"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="16"/>
-      <c r="W8" s="18"/>
-      <c r="X8" s="16"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="18"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="23"/>
+      <c r="Z8" s="24"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
@@ -988,20 +1056,20 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="16" t="s">
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="18"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="23"/>
+      <c r="V9" s="23"/>
+      <c r="W9" s="23"/>
+      <c r="X9" s="23"/>
+      <c r="Y9" s="23"/>
+      <c r="Z9" s="24"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
@@ -1015,18 +1083,18 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="18"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="22"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="22"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="24"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
@@ -1050,20 +1118,20 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="16" t="s">
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="18"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="24"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
@@ -1073,11 +1141,11 @@
       <c r="AG11" s="11"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1090,15 +1158,15 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="16"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="18"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="22"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="24"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -1108,11 +1176,11 @@
       <c r="AG12" s="11"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1176,10 +1244,10 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1208,10 +1276,10 @@
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1271,10 +1339,10 @@
       <c r="AG17" s="11"/>
     </row>
     <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1301,10 +1369,10 @@
       <c r="AG18" s="11"/>
     </row>
     <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1483,20 +1551,20 @@
       <c r="AG26" s="11"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -1518,20 +1586,20 @@
       <c r="AG27" s="11"/>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -1588,20 +1656,20 @@
       <c r="AG29" s="11"/>
     </row>
     <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -1623,20 +1691,20 @@
       <c r="AG30" s="11"/>
     </row>
     <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -1897,25 +1965,25 @@
       <c r="S50" s="20"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="21"/>
-      <c r="H51" s="21"/>
-      <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="21"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
+      <c r="A51" s="19"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="19"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="19"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="19"/>
+      <c r="R51" s="19"/>
+      <c r="S51" s="19"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
@@ -1928,10 +1996,10 @@
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="21"/>
-      <c r="M52" s="21"/>
-      <c r="N52" s="21"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="19"/>
+      <c r="M52" s="19"/>
+      <c r="N52" s="19"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -1949,10 +2017,10 @@
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="21"/>
-      <c r="M53" s="21"/>
-      <c r="N53" s="21"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="19"/>
+      <c r="N53" s="19"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -1981,20 +2049,20 @@
       <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="21"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="21"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="19"/>
+      <c r="N55" s="19"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
@@ -2002,20 +2070,20 @@
       <c r="S55" s="6"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
+      <c r="A56" s="19"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="19"/>
+      <c r="M56" s="19"/>
+      <c r="N56" s="19"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
@@ -2044,20 +2112,20 @@
       <c r="S57" s="6"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="21"/>
+      <c r="A58" s="19"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="21"/>
-      <c r="M58" s="21"/>
-      <c r="N58" s="21"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="19"/>
+      <c r="M58" s="19"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -2065,20 +2133,20 @@
       <c r="S58" s="8"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="21"/>
+      <c r="A59" s="19"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="21"/>
-      <c r="M59" s="21"/>
-      <c r="N59" s="21"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="19"/>
+      <c r="M59" s="19"/>
+      <c r="N59" s="19"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
@@ -2100,27 +2168,6 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A55:E56"/>
-    <mergeCell ref="K55:N56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="A52:E53"/>
-    <mergeCell ref="K52:N53"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A47:S50"/>
-    <mergeCell ref="A51:S51"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="K27:N28"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
     <mergeCell ref="O6:Q11"/>
     <mergeCell ref="R7:Z7"/>
     <mergeCell ref="R10:S10"/>
@@ -2136,6 +2183,27 @@
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="R8:S8"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A47:S50"/>
+    <mergeCell ref="A51:S51"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="K27:N28"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="K55:N56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="A52:E53"/>
+    <mergeCell ref="K52:N53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2145,337 +2213,321 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FBBDD5-C379-4010-B330-FEF59647FB41}">
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:U145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="P84" sqref="P84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="10" width="10.77734375" customWidth="1"/>
-    <col min="16" max="20" width="8.88671875" customWidth="1"/>
+    <col min="6" max="9" width="15.77734375" customWidth="1"/>
+    <col min="15" max="19" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="15"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="23"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="15"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="15"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="15"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="15"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="15"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="15"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="15"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="15"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="15"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="38"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="15"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="15"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="15"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="15"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="15"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="15"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="15"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="N11" s="32" t="s">
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="M11" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="34"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="37"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="28"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="R12" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="S12" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="T12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="N12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="R12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U12" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="9">
-        <v>0.83903300000000003</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.99636000000000002</v>
-      </c>
-      <c r="H13" s="9">
-        <v>0.78163400000000005</v>
-      </c>
-      <c r="I13" s="9">
-        <v>0.81167999999999996</v>
-      </c>
-      <c r="J13" s="9">
-        <v>0.99960899999999997</v>
-      </c>
-      <c r="N13" s="27"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="32" t="s">
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R13" s="33"/>
-      <c r="S13" s="33"/>
-      <c r="T13" s="33"/>
-      <c r="U13" s="34"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="37"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -2485,17 +2537,16 @@
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="28"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="31"/>
+      <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -2505,83 +2556,76 @@
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="32" t="s">
+      <c r="M15" s="30"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R15" s="33"/>
-      <c r="S15" s="33"/>
-      <c r="T15" s="33"/>
-      <c r="U15" s="34"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="37"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N16" s="27"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="28"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="3">
-        <v>0.81368799999999997</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0.99605999999999995</v>
-      </c>
-      <c r="H17" s="3">
-        <v>0.75017999999999996</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0.80053399999999997</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0.99954399999999999</v>
-      </c>
-      <c r="N17" s="27"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="32" t="s">
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="30"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="34"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="37"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2591,17 +2635,16 @@
       <c r="G18" s="10"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="N18" s="29"/>
-      <c r="O18" s="30"/>
-      <c r="P18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2609,73 +2652,69 @@
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M20" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="28"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="R20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="S20" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="T20" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="N20" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="32" t="s">
+      <c r="M21" s="30"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="34"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q21" s="36"/>
+      <c r="R21" s="36"/>
+      <c r="S21" s="36"/>
+      <c r="T21" s="37"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -2685,85 +2724,80 @@
       <c r="G22" s="11"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="28"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
       <c r="R22" s="3"/>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="N23" s="27"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="32" t="s">
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M23" s="30"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R23" s="33"/>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="34"/>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="Q23" s="36"/>
+      <c r="R23" s="36"/>
+      <c r="S23" s="36"/>
+      <c r="T23" s="37"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="28"/>
+      <c r="J24" s="6"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
       <c r="R24" s="3"/>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="6"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="32" t="s">
+      <c r="J25" s="6"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="31"/>
+      <c r="P25" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="34"/>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q25" s="36"/>
+      <c r="R25" s="36"/>
+      <c r="S25" s="36"/>
+      <c r="T25" s="37"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -2773,18 +2807,17 @@
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
       <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="6"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="31"/>
+      <c r="J26" s="6"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3"/>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -2795,77 +2828,72 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="M28" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="28"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="R28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="S28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="T28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="N28" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="6"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="32" t="s">
+      <c r="J29" s="6"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="34"/>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q29" s="36"/>
+      <c r="R29" s="36"/>
+      <c r="S29" s="36"/>
+      <c r="T29" s="37"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -2875,18 +2903,17 @@
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
       <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="6"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="28"/>
+      <c r="J30" s="6"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
       <c r="R30" s="3"/>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -2897,75 +2924,70 @@
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="32" t="s">
+      <c r="M31" s="30"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R31" s="33"/>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="34"/>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="Q31" s="36"/>
+      <c r="R31" s="36"/>
+      <c r="S31" s="36"/>
+      <c r="T31" s="37"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="B32" s="25"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J32" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="28"/>
+      <c r="J32" s="6"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
       <c r="R32" s="3"/>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="6"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="32" t="s">
+      <c r="J33" s="6"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R33" s="33"/>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="34"/>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q33" s="36"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
+      <c r="T33" s="37"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -2975,18 +2997,17 @@
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
       <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="6"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="31"/>
+      <c r="J34" s="6"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="3"/>
       <c r="R34" s="3"/>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -2997,77 +3018,72 @@
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J36" s="6"/>
+      <c r="M36" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N36" s="28"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="R36" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="S36" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="T36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K36" s="6"/>
-      <c r="N36" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O36" s="25"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S36" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="6"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="32" t="s">
+      <c r="J37" s="6"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="20"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R37" s="33"/>
-      <c r="S37" s="33"/>
-      <c r="T37" s="33"/>
-      <c r="U37" s="34"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q37" s="36"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
+      <c r="T37" s="37"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -3077,18 +3093,17 @@
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
       <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="6"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="28"/>
+      <c r="J38" s="6"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="20"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
       <c r="R38" s="3"/>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
@@ -3099,75 +3114,70 @@
       <c r="H39" s="6"/>
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="28"/>
-      <c r="Q39" s="32" t="s">
+      <c r="M39" s="30"/>
+      <c r="N39" s="20"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R39" s="33"/>
-      <c r="S39" s="33"/>
-      <c r="T39" s="33"/>
-      <c r="U39" s="34"/>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A40" s="19" t="s">
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="37"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J40" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="6"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="28"/>
+      <c r="J40" s="6"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="20"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="6"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="28"/>
-      <c r="Q41" s="32" t="s">
+      <c r="J41" s="6"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="20"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R41" s="33"/>
-      <c r="S41" s="33"/>
-      <c r="T41" s="33"/>
-      <c r="U41" s="34"/>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q41" s="36"/>
+      <c r="R41" s="36"/>
+      <c r="S41" s="36"/>
+      <c r="T41" s="37"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -3177,18 +3187,17 @@
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="6"/>
-      <c r="N42" s="29"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="31"/>
+      <c r="J42" s="6"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
       <c r="R42" s="3"/>
       <c r="S42" s="3"/>
       <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -3199,77 +3208,72 @@
       <c r="H43" s="6"/>
       <c r="I43" s="6"/>
       <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="19" t="s">
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
       <c r="F44" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J44" s="6"/>
+      <c r="M44" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N44" s="28"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="R44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="S44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="T44" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K44" s="6"/>
-      <c r="N44" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44" s="25"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R44" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="6"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="28"/>
-      <c r="Q45" s="32" t="s">
+      <c r="J45" s="6"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R45" s="33"/>
-      <c r="S45" s="33"/>
-      <c r="T45" s="33"/>
-      <c r="U45" s="34"/>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q45" s="36"/>
+      <c r="R45" s="36"/>
+      <c r="S45" s="36"/>
+      <c r="T45" s="37"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -3279,18 +3283,17 @@
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="6"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="28"/>
+      <c r="J46" s="6"/>
+      <c r="M46" s="30"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
       <c r="R46" s="3"/>
       <c r="S46" s="3"/>
       <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3301,75 +3304,70 @@
       <c r="H47" s="6"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="28"/>
-      <c r="Q47" s="32" t="s">
+      <c r="M47" s="30"/>
+      <c r="N47" s="20"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R47" s="33"/>
-      <c r="S47" s="33"/>
-      <c r="T47" s="33"/>
-      <c r="U47" s="34"/>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A48" s="19" t="s">
+      <c r="Q47" s="36"/>
+      <c r="R47" s="36"/>
+      <c r="S47" s="36"/>
+      <c r="T47" s="37"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J48" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="6"/>
-      <c r="N48" s="27"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="28"/>
+      <c r="J48" s="6"/>
+      <c r="M48" s="30"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
       <c r="R48" s="3"/>
       <c r="S48" s="3"/>
       <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="6"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="28"/>
-      <c r="Q49" s="32" t="s">
+      <c r="J49" s="6"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="34"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q49" s="36"/>
+      <c r="R49" s="36"/>
+      <c r="S49" s="36"/>
+      <c r="T49" s="37"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -3379,18 +3377,17 @@
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
       <c r="I50" s="11"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="6"/>
-      <c r="N50" s="29"/>
-      <c r="O50" s="30"/>
-      <c r="P50" s="31"/>
+      <c r="J50" s="6"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="3"/>
       <c r="Q50" s="3"/>
       <c r="R50" s="3"/>
       <c r="S50" s="3"/>
       <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
@@ -3401,77 +3398,72 @@
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
       <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="19" t="s">
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="6"/>
+      <c r="M52" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N52" s="28"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="R52" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="S52" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="T52" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="6"/>
-      <c r="N52" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="O52" s="25"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="R52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="S52" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="T52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="U52" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="6"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="28"/>
-      <c r="Q53" s="32" t="s">
+      <c r="J53" s="6"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R53" s="33"/>
-      <c r="S53" s="33"/>
-      <c r="T53" s="33"/>
-      <c r="U53" s="34"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q53" s="36"/>
+      <c r="R53" s="36"/>
+      <c r="S53" s="36"/>
+      <c r="T53" s="37"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -3481,18 +3473,17 @@
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
       <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="6"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="28"/>
+      <c r="J54" s="6"/>
+      <c r="M54" s="30"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
       <c r="R54" s="3"/>
       <c r="S54" s="3"/>
       <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="6"/>
@@ -3503,75 +3494,70 @@
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="32" t="s">
+      <c r="M55" s="30"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="R55" s="33"/>
-      <c r="S55" s="33"/>
-      <c r="T55" s="33"/>
-      <c r="U55" s="34"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
+      <c r="Q55" s="36"/>
+      <c r="R55" s="36"/>
+      <c r="S55" s="36"/>
+      <c r="T55" s="37"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K56" s="6"/>
-      <c r="N56" s="27"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="28"/>
+      <c r="J56" s="6"/>
+      <c r="M56" s="30"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="6"/>
-      <c r="N57" s="27"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="28"/>
-      <c r="Q57" s="32" t="s">
+      <c r="J57" s="6"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="20"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="34"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="37"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -3581,18 +3567,17 @@
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
       <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="6"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="30"/>
-      <c r="P58" s="31"/>
+      <c r="J58" s="6"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="34"/>
+      <c r="P58" s="3"/>
       <c r="Q58" s="3"/>
       <c r="R58" s="3"/>
       <c r="S58" s="3"/>
       <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
@@ -3603,843 +3588,1180 @@
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="33"/>
-      <c r="F60" s="33"/>
-      <c r="G60" s="33"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="33"/>
-      <c r="J60" s="34"/>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="19" t="s">
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="18"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="18"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B63" s="25"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G63" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I63" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="25"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G67" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I67" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B71" s="25"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I71" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" s="25"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="18"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="18"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="2" t="s">
+      <c r="B79" s="25"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="2" t="s">
+      <c r="G79" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="H79" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="I79" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="9">
-        <v>0.82956200000000002</v>
-      </c>
-      <c r="G62" s="9">
-        <v>0.99587099999999995</v>
-      </c>
-      <c r="H62" s="9">
-        <v>0.76721799999999996</v>
-      </c>
-      <c r="I62" s="9">
-        <v>0.78395499999999996</v>
-      </c>
-      <c r="J62" s="9">
-        <v>0.99968100000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-      <c r="J63" s="11"/>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="11"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
-      <c r="J64" s="11"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="19" t="s">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="2" t="s">
+      <c r="B83" s="25"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G65" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H65" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="11"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-      <c r="J67" s="11"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="19" t="s">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B87" s="25"/>
+      <c r="C87" s="25"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G87" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I87" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B91" s="25"/>
+      <c r="C91" s="25"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G91" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B95" s="25"/>
+      <c r="C95" s="25"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G95" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="11"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="11"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="25"/>
+      <c r="C99" s="25"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G99" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="25"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="11"/>
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B69" s="19"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
-      <c r="F69" s="2" t="s">
+      <c r="B103" s="25"/>
+      <c r="C103" s="25"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G69" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="I103" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="19"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="3">
-        <v>0.82086300000000001</v>
-      </c>
-      <c r="G70" s="3">
-        <v>0.99646299999999999</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0.75783500000000004</v>
-      </c>
-      <c r="I70" s="3">
-        <v>0.84837600000000002</v>
-      </c>
-      <c r="J70" s="3">
-        <v>0.999193</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="6"/>
-      <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="19" t="s">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="C104" s="25"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="6"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="6"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="19"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
-      <c r="F73" s="2" t="s">
+      <c r="B107" s="25"/>
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G73" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H73" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I73" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="9">
-        <v>0.68260200000000004</v>
-      </c>
-      <c r="G74" s="9">
-        <v>0.99299300000000001</v>
-      </c>
-      <c r="H74" s="9">
-        <v>0.63104400000000005</v>
-      </c>
-      <c r="I74" s="9">
-        <v>0.67362999999999995</v>
-      </c>
-      <c r="J74" s="9">
-        <v>0.99968100000000004</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
-      <c r="J75" s="11"/>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="19" t="s">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
+      <c r="F109" s="11"/>
+      <c r="G109" s="11"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B77" s="19"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="2" t="s">
+      <c r="B111" s="25"/>
+      <c r="C111" s="25"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G77" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H77" s="2" t="s">
+      <c r="G111" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="H111" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="19"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="9">
-        <v>0.83738100000000004</v>
-      </c>
-      <c r="G78" s="9">
-        <v>0.99624900000000005</v>
-      </c>
-      <c r="H78" s="9">
-        <v>0.77728299999999995</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0.80934600000000001</v>
-      </c>
-      <c r="J78" s="9">
-        <v>0.99950499999999998</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
-      <c r="J79" s="11"/>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A81" s="19" t="s">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="6"/>
+      <c r="D114" s="6"/>
+      <c r="E114" s="6"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
+      <c r="I114" s="6"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B81" s="19"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="5" t="s">
+      <c r="B115" s="25"/>
+      <c r="C115" s="25"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G81" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H81" s="5" t="s">
+      <c r="G115" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I81" s="5" t="s">
+      <c r="H115" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="J81" s="5" t="s">
+      <c r="I115" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="19"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A83" s="11"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
-      <c r="J83" s="11"/>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="19" t="s">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="C116" s="25"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="11"/>
+      <c r="E117" s="11"/>
+      <c r="F117" s="11"/>
+      <c r="G117" s="11"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="11"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="6"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="6"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="6"/>
+      <c r="I118" s="6"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="19"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="2" t="s">
+      <c r="B119" s="25"/>
+      <c r="C119" s="25"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G85" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H85" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="11"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
-      <c r="J87" s="11"/>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="6"/>
-      <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="19" t="s">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="C120" s="25"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="11"/>
+      <c r="F121" s="11"/>
+      <c r="G121" s="11"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="6"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="6"/>
+      <c r="G122" s="6"/>
+      <c r="H122" s="6"/>
+      <c r="I122" s="6"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B89" s="19"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="2" t="s">
+      <c r="B123" s="25"/>
+      <c r="C123" s="25"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G89" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H89" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I89" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="19"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
-      <c r="J91" s="11"/>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="19" t="s">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="C124" s="25"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="9"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="11"/>
+      <c r="E125" s="11"/>
+      <c r="F125" s="11"/>
+      <c r="G125" s="11"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="6"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="6"/>
+      <c r="G126" s="6"/>
+      <c r="H126" s="6"/>
+      <c r="I126" s="6"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B93" s="19"/>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="2" t="s">
+      <c r="B127" s="25"/>
+      <c r="C127" s="25"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="19"/>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
-      <c r="J95" s="11"/>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="6"/>
-      <c r="B96" s="6"/>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="19" t="s">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="C128" s="25"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="11"/>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11"/>
+      <c r="G129" s="11"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="11"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="6"/>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B97" s="19"/>
-      <c r="C97" s="19"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
-      <c r="F97" s="2" t="s">
+      <c r="B131" s="25"/>
+      <c r="C131" s="25"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G97" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H97" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="19"/>
-      <c r="B98" s="19"/>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
-      <c r="J98" s="9"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
-      <c r="J99" s="11"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="C132" s="25"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="9"/>
+      <c r="G132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="I132" s="9"/>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11"/>
+      <c r="G133" s="11"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="E134" s="8"/>
+      <c r="F134" s="6"/>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
-      <c r="F101" s="2" t="s">
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H101" s="2" t="s">
+      <c r="G135" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="I135" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A102" s="19"/>
-      <c r="B102" s="19"/>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="11"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
-      <c r="J103" s="11"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="6"/>
-      <c r="B104" s="6"/>
-      <c r="C104" s="6"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="6"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
-      <c r="I104" s="6"/>
-      <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="19" t="s">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="9"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="6"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="6"/>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B105" s="19"/>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="2" t="s">
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G105" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H105" s="2" t="s">
+      <c r="G139" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I105" s="2" t="s">
+      <c r="H139" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="I139" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A106" s="19"/>
-      <c r="B106" s="19"/>
-      <c r="C106" s="19"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11"/>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
-      <c r="J107" s="11"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="6"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
-      <c r="H108" s="6"/>
-      <c r="I108" s="6"/>
-      <c r="J108" s="6"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="19" t="s">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="9"/>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+      <c r="E141" s="11"/>
+      <c r="F141" s="11"/>
+      <c r="G141" s="11"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="6"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="6"/>
+      <c r="D142" s="6"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="6"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B109" s="19"/>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="2" t="s">
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G109" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H109" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="H143" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="I143" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="19"/>
-      <c r="B110" s="19"/>
-      <c r="C110" s="19"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="9"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="11"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="9"/>
+      <c r="G144" s="9"/>
+      <c r="H144" s="9"/>
+      <c r="I144" s="9"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="11"/>
+      <c r="F145" s="11"/>
+      <c r="G145" s="11"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="53">
-    <mergeCell ref="A73:E74"/>
-    <mergeCell ref="A81:E82"/>
-    <mergeCell ref="A56:E57"/>
-    <mergeCell ref="A60:J60"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="N28:P34"/>
-    <mergeCell ref="Q29:U29"/>
-    <mergeCell ref="Q31:U31"/>
-    <mergeCell ref="Q33:U33"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="Q15:U15"/>
-    <mergeCell ref="Q17:U17"/>
-    <mergeCell ref="N12:P18"/>
-    <mergeCell ref="N52:P58"/>
-    <mergeCell ref="Q53:U53"/>
-    <mergeCell ref="Q55:U55"/>
-    <mergeCell ref="Q57:U57"/>
-    <mergeCell ref="N36:P42"/>
-    <mergeCell ref="Q37:U37"/>
-    <mergeCell ref="Q39:U39"/>
-    <mergeCell ref="Q41:U41"/>
-    <mergeCell ref="N44:P50"/>
-    <mergeCell ref="Q45:U45"/>
-    <mergeCell ref="Q47:U47"/>
-    <mergeCell ref="Q49:U49"/>
+  <mergeCells count="61">
+    <mergeCell ref="A135:E136"/>
+    <mergeCell ref="A139:E140"/>
+    <mergeCell ref="A143:E144"/>
+    <mergeCell ref="A111:E112"/>
+    <mergeCell ref="A83:E84"/>
+    <mergeCell ref="A119:E120"/>
+    <mergeCell ref="A123:E124"/>
+    <mergeCell ref="A127:E128"/>
+    <mergeCell ref="A131:E132"/>
+    <mergeCell ref="A95:E96"/>
+    <mergeCell ref="A99:E100"/>
+    <mergeCell ref="A87:E88"/>
+    <mergeCell ref="A91:E92"/>
+    <mergeCell ref="A103:E104"/>
+    <mergeCell ref="A107:E108"/>
+    <mergeCell ref="A115:E116"/>
+    <mergeCell ref="A1:T9"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A16:E17"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="M20:O26"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="A11:I11"/>
     <mergeCell ref="A28:E29"/>
     <mergeCell ref="A52:E53"/>
     <mergeCell ref="A48:E49"/>
@@ -4447,25 +4769,33 @@
     <mergeCell ref="A40:E41"/>
     <mergeCell ref="A36:E37"/>
     <mergeCell ref="A32:E33"/>
-    <mergeCell ref="A1:U9"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A16:E17"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="N20:P26"/>
-    <mergeCell ref="Q21:U21"/>
-    <mergeCell ref="Q23:U23"/>
-    <mergeCell ref="Q25:U25"/>
-    <mergeCell ref="N11:U11"/>
-    <mergeCell ref="A101:E102"/>
-    <mergeCell ref="A105:E106"/>
-    <mergeCell ref="A109:E110"/>
-    <mergeCell ref="A77:E78"/>
-    <mergeCell ref="A65:E66"/>
-    <mergeCell ref="A85:E86"/>
-    <mergeCell ref="A89:E90"/>
-    <mergeCell ref="A93:E94"/>
-    <mergeCell ref="A97:E98"/>
+    <mergeCell ref="M28:O34"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="M12:O18"/>
+    <mergeCell ref="M52:O58"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="M36:O42"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="M44:O50"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="A56:E57"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A79:E80"/>
+    <mergeCell ref="A63:E64"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="A71:E72"/>
+    <mergeCell ref="A75:E76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/others/Experiment Results.xlsx
+++ b/others/Experiment Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20376"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA45F700-37B5-441A-B98D-E37C36597A2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F04A183-F6F2-4C0D-96A8-1A95057EE20B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="64">
   <si>
     <t>CNV单目标分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,15 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.7635±0.0999</t>
-  </si>
-  <si>
-    <t>0.7244±0.0955</t>
-  </si>
-  <si>
-    <t>0.8512±0.0436</t>
-  </si>
-  <si>
     <t>0.9966±0.0025</t>
   </si>
   <si>
@@ -177,6 +168,90 @@
   </si>
   <si>
     <t>0.9987±0.0009</t>
+  </si>
+  <si>
+    <t>0.8293±0.0217</t>
+  </si>
+  <si>
+    <t>0.7885±0.0216</t>
+  </si>
+  <si>
+    <t>0.8674±0.0401</t>
+  </si>
+  <si>
+    <t>0.9986±0.0009</t>
+  </si>
+  <si>
+    <t>ResUNet_concat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8566±0.0195</t>
+  </si>
+  <si>
+    <t>0.8173±0.0248</t>
+  </si>
+  <si>
+    <t>0.8868±0.0399</t>
+  </si>
+  <si>
+    <t>0.9989±0.0004</t>
+  </si>
+  <si>
+    <t>ResUNet_add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8577±0.0225</t>
+  </si>
+  <si>
+    <t>0.8166±0.0273</t>
+  </si>
+  <si>
+    <t>0.8846±0.0336</t>
+  </si>
+  <si>
+    <t>0.9989±0.0006</t>
+  </si>
+  <si>
+    <t>0.8473±0.0218</t>
+  </si>
+  <si>
+    <t>0.8077±0.0261</t>
+  </si>
+  <si>
+    <t>0.8846±0.0444</t>
+  </si>
+  <si>
+    <t>0.9987±0.0007</t>
+  </si>
+  <si>
+    <t>Unet_spp_se</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8169±0.0188</t>
+  </si>
+  <si>
+    <t>0.7750±0.0198</t>
+  </si>
+  <si>
+    <t>0.8570±0.0346</t>
+  </si>
+  <si>
+    <t>0.9984±0.0010</t>
+  </si>
+  <si>
+    <t>0.7984±0.0168</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7568±0.0126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8617±0.0478</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -423,14 +498,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -441,11 +510,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -481,7 +556,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,21 +1052,21 @@
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="13"/>
-      <c r="O6" s="25" t="s">
+      <c r="O6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="24"/>
-      <c r="T6" s="22"/>
-      <c r="U6" s="24"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="24"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="23"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
       <c r="AB6" s="11"/>
       <c r="AC6" s="11"/>
       <c r="AD6" s="11"/>
@@ -1004,20 +1079,20 @@
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
       <c r="N7" s="13"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="22" t="s">
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="24"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="22"/>
       <c r="AA7" s="11"/>
       <c r="AB7" s="11"/>
       <c r="AC7" s="11"/>
@@ -1031,18 +1106,18 @@
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
       <c r="N8" s="13"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="22"/>
-      <c r="U8" s="24"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="24"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="22"/>
       <c r="AA8" s="11"/>
       <c r="AB8" s="11"/>
       <c r="AC8" s="11"/>
@@ -1056,20 +1131,20 @@
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
       <c r="N9" s="13"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="22" t="s">
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="24"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="22"/>
       <c r="AA9" s="11"/>
       <c r="AB9" s="11"/>
       <c r="AC9" s="11"/>
@@ -1083,18 +1158,18 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
       <c r="N10" s="13"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="24"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="24"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="24"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="22"/>
       <c r="AA10" s="11"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
@@ -1118,20 +1193,20 @@
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="22" t="s">
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="24"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="22"/>
       <c r="AA11" s="11"/>
       <c r="AB11" s="11"/>
       <c r="AC11" s="11"/>
@@ -1141,11 +1216,11 @@
       <c r="AG11" s="11"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
@@ -1158,15 +1233,15 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="24"/>
-      <c r="T12" s="22"/>
-      <c r="U12" s="24"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="24"/>
-      <c r="X12" s="22"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="24"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="22"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="22"/>
       <c r="AA12" s="11"/>
       <c r="AB12" s="11"/>
       <c r="AC12" s="11"/>
@@ -1176,11 +1251,11 @@
       <c r="AG12" s="11"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="7"/>
@@ -1244,10 +1319,10 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -1276,10 +1351,10 @@
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -1339,10 +1414,10 @@
       <c r="AG17" s="11"/>
     </row>
     <row r="18" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -1369,10 +1444,10 @@
       <c r="AG18" s="11"/>
     </row>
     <row r="19" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
@@ -1551,20 +1626,20 @@
       <c r="AG26" s="11"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -1586,20 +1661,20 @@
       <c r="AG27" s="11"/>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -1656,20 +1731,20 @@
       <c r="AG29" s="11"/>
     </row>
     <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="A30" s="23"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="6"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -1691,20 +1766,20 @@
       <c r="AG30" s="11"/>
     </row>
     <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="A31" s="23"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="23"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -1881,125 +1956,125 @@
     <row r="45" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
     </row>
     <row r="48" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="25"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="25"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="25"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
-      <c r="Q51" s="19"/>
-      <c r="R51" s="19"/>
-      <c r="S51" s="19"/>
+      <c r="A51" s="23"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
       <c r="I52" s="7"/>
       <c r="J52" s="8"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
       <c r="O52" s="7"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
@@ -2007,20 +2082,20 @@
       <c r="S52" s="8"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="I53" s="6"/>
       <c r="J53" s="6"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
       <c r="O53" s="6"/>
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
@@ -2049,20 +2124,20 @@
       <c r="S54" s="6"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+      <c r="A55" s="23"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
       <c r="O55" s="6"/>
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
@@ -2070,20 +2145,20 @@
       <c r="S55" s="6"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
@@ -2112,20 +2187,20 @@
       <c r="S57" s="6"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+      <c r="A58" s="23"/>
+      <c r="B58" s="23"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="23"/>
+      <c r="M58" s="23"/>
+      <c r="N58" s="23"/>
       <c r="O58" s="7"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
@@ -2133,20 +2208,20 @@
       <c r="S58" s="8"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="A59" s="23"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="23"/>
+      <c r="M59" s="23"/>
+      <c r="N59" s="23"/>
       <c r="O59" s="6"/>
       <c r="P59" s="6"/>
       <c r="Q59" s="6"/>
@@ -2168,6 +2243,27 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="K55:N56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="A52:E53"/>
+    <mergeCell ref="K52:N53"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A47:S50"/>
+    <mergeCell ref="A51:S51"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="K27:N28"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
     <mergeCell ref="O6:Q11"/>
     <mergeCell ref="R7:Z7"/>
     <mergeCell ref="R10:S10"/>
@@ -2183,27 +2279,6 @@
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="R8:S8"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A47:S50"/>
-    <mergeCell ref="A51:S51"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="K27:N28"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="A55:E56"/>
-    <mergeCell ref="K55:N56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="A52:E53"/>
-    <mergeCell ref="K52:N53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2216,7 +2291,7 @@
   <dimension ref="A1:U145"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2226,212 +2301,212 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
       <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
-      <c r="O2" s="38"/>
-      <c r="P2" s="38"/>
-      <c r="Q2" s="38"/>
-      <c r="R2" s="38"/>
-      <c r="S2" s="38"/>
-      <c r="T2" s="38"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
       <c r="U2" s="15"/>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="38"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
       <c r="U3" s="15"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
       <c r="U4" s="15"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
       <c r="U5" s="15"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
       <c r="U6" s="15"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38"/>
-      <c r="O7" s="38"/>
-      <c r="P7" s="38"/>
-      <c r="Q7" s="38"/>
-      <c r="R7" s="38"/>
-      <c r="S7" s="38"/>
-      <c r="T7" s="38"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
       <c r="U7" s="15"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
-      <c r="Q8" s="38"/>
-      <c r="R8" s="38"/>
-      <c r="S8" s="38"/>
-      <c r="T8" s="38"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
       <c r="U8" s="15"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-      <c r="Q9" s="38"/>
-      <c r="R9" s="38"/>
-      <c r="S9" s="38"/>
-      <c r="T9" s="38"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
       <c r="U9" s="15"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -2458,13 +2533,13 @@
       <c r="T11" s="37"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
@@ -2499,25 +2574,25 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
       <c r="F13" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>36</v>
-      </c>
       <c r="M13" s="30"/>
-      <c r="N13" s="20"/>
+      <c r="N13" s="25"/>
       <c r="O13" s="31"/>
       <c r="P13" s="35" t="s">
         <v>15</v>
@@ -2538,7 +2613,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="M14" s="30"/>
-      <c r="N14" s="20"/>
+      <c r="N14" s="25"/>
       <c r="O14" s="31"/>
       <c r="P14" s="3"/>
       <c r="Q14" s="3"/>
@@ -2557,7 +2632,7 @@
       <c r="H15" s="10"/>
       <c r="I15" s="10"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="20"/>
+      <c r="N15" s="25"/>
       <c r="O15" s="31"/>
       <c r="P15" s="35" t="s">
         <v>16</v>
@@ -2568,13 +2643,13 @@
       <c r="T15" s="37"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
       <c r="F16" s="2" t="s">
         <v>1</v>
       </c>
@@ -2588,7 +2663,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="30"/>
-      <c r="N16" s="20"/>
+      <c r="N16" s="25"/>
       <c r="O16" s="31"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
@@ -2597,25 +2672,25 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
       <c r="F17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="M17" s="30"/>
-      <c r="N17" s="20"/>
+      <c r="N17" s="25"/>
       <c r="O17" s="31"/>
       <c r="P17" s="35" t="s">
         <v>17</v>
@@ -2653,13 +2728,13 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
+      <c r="A20" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
       <c r="F20" s="2" t="s">
         <v>1</v>
       </c>
@@ -2694,17 +2769,25 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>41</v>
+      </c>
       <c r="M21" s="30"/>
-      <c r="N21" s="20"/>
+      <c r="N21" s="25"/>
       <c r="O21" s="31"/>
       <c r="P21" s="35" t="s">
         <v>15</v>
@@ -2725,7 +2808,7 @@
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
       <c r="M22" s="30"/>
-      <c r="N22" s="20"/>
+      <c r="N22" s="25"/>
       <c r="O22" s="31"/>
       <c r="P22" s="3"/>
       <c r="Q22" s="3"/>
@@ -2735,7 +2818,7 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="M23" s="30"/>
-      <c r="N23" s="20"/>
+      <c r="N23" s="25"/>
       <c r="O23" s="31"/>
       <c r="P23" s="35" t="s">
         <v>16</v>
@@ -2746,13 +2829,13 @@
       <c r="T23" s="37"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="A24" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
       <c r="F24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2767,7 +2850,7 @@
       </c>
       <c r="J24" s="6"/>
       <c r="M24" s="30"/>
-      <c r="N24" s="20"/>
+      <c r="N24" s="25"/>
       <c r="O24" s="31"/>
       <c r="P24" s="3"/>
       <c r="Q24" s="3"/>
@@ -2776,18 +2859,26 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="J25" s="6"/>
       <c r="M25" s="30"/>
-      <c r="N25" s="20"/>
+      <c r="N25" s="25"/>
       <c r="O25" s="31"/>
       <c r="P25" s="35" t="s">
         <v>17</v>
@@ -2830,13 +2921,13 @@
       <c r="J27" s="6"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="A28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="2" t="s">
         <v>1</v>
       </c>
@@ -2872,18 +2963,26 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>51</v>
+      </c>
       <c r="J29" s="6"/>
       <c r="M29" s="30"/>
-      <c r="N29" s="20"/>
+      <c r="N29" s="25"/>
       <c r="O29" s="31"/>
       <c r="P29" s="35" t="s">
         <v>15</v>
@@ -2905,7 +3004,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="6"/>
       <c r="M30" s="30"/>
-      <c r="N30" s="20"/>
+      <c r="N30" s="25"/>
       <c r="O30" s="31"/>
       <c r="P30" s="3"/>
       <c r="Q30" s="3"/>
@@ -2925,7 +3024,7 @@
       <c r="I31" s="6"/>
       <c r="J31" s="6"/>
       <c r="M31" s="30"/>
-      <c r="N31" s="20"/>
+      <c r="N31" s="25"/>
       <c r="O31" s="31"/>
       <c r="P31" s="35" t="s">
         <v>16</v>
@@ -2936,13 +3035,13 @@
       <c r="T31" s="37"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
       <c r="F32" s="2" t="s">
         <v>1</v>
       </c>
@@ -2957,7 +3056,7 @@
       </c>
       <c r="J32" s="6"/>
       <c r="M32" s="30"/>
-      <c r="N32" s="20"/>
+      <c r="N32" s="25"/>
       <c r="O32" s="31"/>
       <c r="P32" s="3"/>
       <c r="Q32" s="3"/>
@@ -2966,18 +3065,26 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>55</v>
+      </c>
       <c r="J33" s="6"/>
       <c r="M33" s="30"/>
-      <c r="N33" s="20"/>
+      <c r="N33" s="25"/>
       <c r="O33" s="31"/>
       <c r="P33" s="35" t="s">
         <v>17</v>
@@ -3020,13 +3127,13 @@
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
+      <c r="A36" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
       <c r="F36" s="2" t="s">
         <v>1</v>
       </c>
@@ -3062,18 +3169,26 @@
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="J37" s="6"/>
       <c r="M37" s="30"/>
-      <c r="N37" s="20"/>
+      <c r="N37" s="25"/>
       <c r="O37" s="31"/>
       <c r="P37" s="35" t="s">
         <v>15</v>
@@ -3095,7 +3210,7 @@
       <c r="I38" s="11"/>
       <c r="J38" s="6"/>
       <c r="M38" s="30"/>
-      <c r="N38" s="20"/>
+      <c r="N38" s="25"/>
       <c r="O38" s="31"/>
       <c r="P38" s="3"/>
       <c r="Q38" s="3"/>
@@ -3115,7 +3230,7 @@
       <c r="I39" s="6"/>
       <c r="J39" s="6"/>
       <c r="M39" s="30"/>
-      <c r="N39" s="20"/>
+      <c r="N39" s="25"/>
       <c r="O39" s="31"/>
       <c r="P39" s="35" t="s">
         <v>16</v>
@@ -3126,13 +3241,13 @@
       <c r="T39" s="37"/>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
       <c r="F40" s="2" t="s">
         <v>1</v>
       </c>
@@ -3147,7 +3262,7 @@
       </c>
       <c r="J40" s="6"/>
       <c r="M40" s="30"/>
-      <c r="N40" s="20"/>
+      <c r="N40" s="25"/>
       <c r="O40" s="31"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
@@ -3156,18 +3271,18 @@
       <c r="T40" s="3"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
       <c r="J41" s="6"/>
       <c r="M41" s="30"/>
-      <c r="N41" s="20"/>
+      <c r="N41" s="25"/>
       <c r="O41" s="31"/>
       <c r="P41" s="35" t="s">
         <v>17</v>
@@ -3210,13 +3325,13 @@
       <c r="J43" s="6"/>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
       <c r="F44" s="2" t="s">
         <v>1</v>
       </c>
@@ -3252,18 +3367,18 @@
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
       <c r="I45" s="9"/>
       <c r="J45" s="6"/>
       <c r="M45" s="30"/>
-      <c r="N45" s="20"/>
+      <c r="N45" s="25"/>
       <c r="O45" s="31"/>
       <c r="P45" s="35" t="s">
         <v>15</v>
@@ -3285,7 +3400,7 @@
       <c r="I46" s="11"/>
       <c r="J46" s="6"/>
       <c r="M46" s="30"/>
-      <c r="N46" s="20"/>
+      <c r="N46" s="25"/>
       <c r="O46" s="31"/>
       <c r="P46" s="3"/>
       <c r="Q46" s="3"/>
@@ -3305,7 +3420,7 @@
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="M47" s="30"/>
-      <c r="N47" s="20"/>
+      <c r="N47" s="25"/>
       <c r="O47" s="31"/>
       <c r="P47" s="35" t="s">
         <v>16</v>
@@ -3316,13 +3431,13 @@
       <c r="T47" s="37"/>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="2" t="s">
         <v>1</v>
       </c>
@@ -3337,7 +3452,7 @@
       </c>
       <c r="J48" s="6"/>
       <c r="M48" s="30"/>
-      <c r="N48" s="20"/>
+      <c r="N48" s="25"/>
       <c r="O48" s="31"/>
       <c r="P48" s="3"/>
       <c r="Q48" s="3"/>
@@ -3346,18 +3461,18 @@
       <c r="T48" s="3"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="25"/>
-      <c r="E49" s="25"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
       <c r="J49" s="6"/>
       <c r="M49" s="30"/>
-      <c r="N49" s="20"/>
+      <c r="N49" s="25"/>
       <c r="O49" s="31"/>
       <c r="P49" s="35" t="s">
         <v>17</v>
@@ -3400,13 +3515,13 @@
       <c r="J51" s="6"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="19"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="2" t="s">
         <v>1</v>
       </c>
@@ -3442,18 +3557,18 @@
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="25"/>
-      <c r="E53" s="25"/>
+      <c r="A53" s="19"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="19"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
       <c r="J53" s="6"/>
       <c r="M53" s="30"/>
-      <c r="N53" s="20"/>
+      <c r="N53" s="25"/>
       <c r="O53" s="31"/>
       <c r="P53" s="35" t="s">
         <v>15</v>
@@ -3475,7 +3590,7 @@
       <c r="I54" s="11"/>
       <c r="J54" s="6"/>
       <c r="M54" s="30"/>
-      <c r="N54" s="20"/>
+      <c r="N54" s="25"/>
       <c r="O54" s="31"/>
       <c r="P54" s="3"/>
       <c r="Q54" s="3"/>
@@ -3495,7 +3610,7 @@
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
       <c r="M55" s="30"/>
-      <c r="N55" s="20"/>
+      <c r="N55" s="25"/>
       <c r="O55" s="31"/>
       <c r="P55" s="35" t="s">
         <v>16</v>
@@ -3506,13 +3621,13 @@
       <c r="T55" s="37"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
+      <c r="A56" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="25"/>
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="19"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="2" t="s">
         <v>1</v>
       </c>
@@ -3527,7 +3642,7 @@
       </c>
       <c r="J56" s="6"/>
       <c r="M56" s="30"/>
-      <c r="N56" s="20"/>
+      <c r="N56" s="25"/>
       <c r="O56" s="31"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -3536,18 +3651,18 @@
       <c r="T56" s="3"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="25"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
+      <c r="A57" s="19"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="19"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
       <c r="J57" s="6"/>
       <c r="M57" s="30"/>
-      <c r="N57" s="20"/>
+      <c r="N57" s="25"/>
       <c r="O57" s="31"/>
       <c r="P57" s="35" t="s">
         <v>17</v>
@@ -3590,17 +3705,17 @@
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A60" s="26" t="s">
+      <c r="A60" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="38"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="18"/>
@@ -3625,13 +3740,13 @@
       <c r="I62" s="18"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A63" s="25" t="s">
+      <c r="A63" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="25"/>
-      <c r="E63" s="25"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="19"/>
+      <c r="D63" s="19"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="16" t="s">
         <v>1</v>
       </c>
@@ -3646,11 +3761,11 @@
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
+      <c r="A64" s="19"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
@@ -3679,13 +3794,13 @@
       <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="25" t="s">
+      <c r="A67" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="25"/>
-      <c r="C67" s="25"/>
-      <c r="D67" s="25"/>
-      <c r="E67" s="25"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="16" t="s">
         <v>1</v>
       </c>
@@ -3700,11 +3815,11 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
-      <c r="C68" s="25"/>
-      <c r="D68" s="25"/>
-      <c r="E68" s="25"/>
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" s="19"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
       <c r="H68" s="9"/>
@@ -3733,13 +3848,13 @@
       <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="25"/>
-      <c r="E71" s="25"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
+      <c r="E71" s="19"/>
       <c r="F71" s="16" t="s">
         <v>1</v>
       </c>
@@ -3754,11 +3869,11 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
-      <c r="B72" s="25"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="25"/>
-      <c r="E72" s="25"/>
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
+      <c r="E72" s="19"/>
       <c r="F72" s="9"/>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
@@ -3787,13 +3902,13 @@
       <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
+      <c r="A75" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B75" s="25"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="25"/>
-      <c r="E75" s="25"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
       <c r="F75" s="16" t="s">
         <v>1</v>
       </c>
@@ -3808,11 +3923,11 @@
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
-      <c r="B76" s="25"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="25"/>
-      <c r="E76" s="25"/>
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="9"/>
@@ -3841,13 +3956,13 @@
       <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
+      <c r="A79" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="25"/>
-      <c r="E79" s="25"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
       <c r="F79" s="16" t="s">
         <v>1</v>
       </c>
@@ -3862,11 +3977,11 @@
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
-      <c r="B80" s="25"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="25"/>
-      <c r="E80" s="25"/>
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" s="19"/>
+      <c r="E80" s="19"/>
       <c r="F80" s="9"/>
       <c r="G80" s="9"/>
       <c r="H80" s="9"/>
@@ -3895,13 +4010,13 @@
       <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
+      <c r="A83" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="25"/>
-      <c r="E83" s="25"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
       <c r="F83" s="2" t="s">
         <v>1</v>
       </c>
@@ -3916,11 +4031,11 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
-      <c r="B84" s="25"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="25"/>
-      <c r="E84" s="25"/>
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
       <c r="F84" s="9"/>
       <c r="G84" s="9"/>
       <c r="H84" s="9"/>
@@ -3949,13 +4064,13 @@
       <c r="I86" s="11"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
+      <c r="A87" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="25"/>
-      <c r="E87" s="25"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
       <c r="F87" s="16" t="s">
         <v>1</v>
       </c>
@@ -3970,11 +4085,11 @@
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="25"/>
-      <c r="B88" s="25"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="25"/>
-      <c r="E88" s="25"/>
+      <c r="A88" s="19"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
       <c r="F88" s="9"/>
       <c r="G88" s="9"/>
       <c r="H88" s="9"/>
@@ -4003,13 +4118,13 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
+      <c r="A91" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="25"/>
-      <c r="D91" s="25"/>
-      <c r="E91" s="25"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
       <c r="F91" s="16" t="s">
         <v>1</v>
       </c>
@@ -4024,11 +4139,11 @@
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
-      <c r="B92" s="25"/>
-      <c r="C92" s="25"/>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
+      <c r="A92" s="19"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="19"/>
+      <c r="D92" s="19"/>
+      <c r="E92" s="19"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
       <c r="H92" s="9"/>
@@ -4057,13 +4172,13 @@
       <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
+      <c r="A95" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="25"/>
-      <c r="D95" s="25"/>
-      <c r="E95" s="25"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="19"/>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
       <c r="F95" s="16" t="s">
         <v>1</v>
       </c>
@@ -4078,11 +4193,11 @@
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
-      <c r="B96" s="25"/>
-      <c r="C96" s="25"/>
-      <c r="D96" s="25"/>
-      <c r="E96" s="25"/>
+      <c r="A96" s="19"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
       <c r="H96" s="9"/>
@@ -4111,13 +4226,13 @@
       <c r="I98" s="11"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="25" t="s">
+      <c r="A99" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="25"/>
-      <c r="C99" s="25"/>
-      <c r="D99" s="25"/>
-      <c r="E99" s="25"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
       <c r="F99" s="16" t="s">
         <v>1</v>
       </c>
@@ -4132,11 +4247,11 @@
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="25"/>
-      <c r="D100" s="25"/>
-      <c r="E100" s="25"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
       <c r="F100" s="9"/>
       <c r="G100" s="9"/>
       <c r="H100" s="9"/>
@@ -4165,13 +4280,13 @@
       <c r="I102" s="10"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="25" t="s">
+      <c r="A103" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B103" s="25"/>
-      <c r="C103" s="25"/>
-      <c r="D103" s="25"/>
-      <c r="E103" s="25"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
       <c r="F103" s="2" t="s">
         <v>1</v>
       </c>
@@ -4186,11 +4301,11 @@
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="25"/>
-      <c r="D104" s="25"/>
-      <c r="E104" s="25"/>
+      <c r="A104" s="19"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="19"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
       <c r="F104" s="9"/>
       <c r="G104" s="9"/>
       <c r="H104" s="9"/>
@@ -4216,13 +4331,13 @@
       <c r="F106" s="6"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="25" t="s">
+      <c r="A107" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B107" s="25"/>
-      <c r="C107" s="25"/>
-      <c r="D107" s="25"/>
-      <c r="E107" s="25"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
       <c r="F107" s="2" t="s">
         <v>1</v>
       </c>
@@ -4237,11 +4352,11 @@
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
-      <c r="B108" s="25"/>
-      <c r="C108" s="25"/>
-      <c r="D108" s="25"/>
-      <c r="E108" s="25"/>
+      <c r="A108" s="19"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
       <c r="F108" s="9"/>
       <c r="G108" s="9"/>
       <c r="H108" s="9"/>
@@ -4259,13 +4374,13 @@
       <c r="I109" s="11"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="25" t="s">
+      <c r="A111" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B111" s="25"/>
-      <c r="C111" s="25"/>
-      <c r="D111" s="25"/>
-      <c r="E111" s="25"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
       <c r="F111" s="2" t="s">
         <v>1</v>
       </c>
@@ -4280,11 +4395,11 @@
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
-      <c r="B112" s="25"/>
-      <c r="C112" s="25"/>
-      <c r="D112" s="25"/>
-      <c r="E112" s="25"/>
+      <c r="A112" s="19"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="19"/>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
       <c r="F112" s="9"/>
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
@@ -4313,13 +4428,13 @@
       <c r="I114" s="6"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="25" t="s">
+      <c r="A115" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B115" s="25"/>
-      <c r="C115" s="25"/>
-      <c r="D115" s="25"/>
-      <c r="E115" s="25"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="19"/>
+      <c r="D115" s="19"/>
+      <c r="E115" s="19"/>
       <c r="F115" s="5" t="s">
         <v>1</v>
       </c>
@@ -4334,11 +4449,11 @@
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
-      <c r="B116" s="25"/>
-      <c r="C116" s="25"/>
-      <c r="D116" s="25"/>
-      <c r="E116" s="25"/>
+      <c r="A116" s="19"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="19"/>
       <c r="F116" s="9"/>
       <c r="G116" s="9"/>
       <c r="H116" s="9"/>
@@ -4367,13 +4482,13 @@
       <c r="I118" s="6"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="25" t="s">
+      <c r="A119" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B119" s="25"/>
-      <c r="C119" s="25"/>
-      <c r="D119" s="25"/>
-      <c r="E119" s="25"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="19"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
       <c r="F119" s="2" t="s">
         <v>1</v>
       </c>
@@ -4388,11 +4503,11 @@
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
-      <c r="B120" s="25"/>
-      <c r="C120" s="25"/>
-      <c r="D120" s="25"/>
-      <c r="E120" s="25"/>
+      <c r="A120" s="19"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="19"/>
+      <c r="D120" s="19"/>
+      <c r="E120" s="19"/>
       <c r="F120" s="9"/>
       <c r="G120" s="9"/>
       <c r="H120" s="9"/>
@@ -4421,13 +4536,13 @@
       <c r="I122" s="6"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="25" t="s">
+      <c r="A123" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B123" s="25"/>
-      <c r="C123" s="25"/>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="19"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
       <c r="F123" s="2" t="s">
         <v>1</v>
       </c>
@@ -4442,11 +4557,11 @@
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="25"/>
-      <c r="B124" s="25"/>
-      <c r="C124" s="25"/>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
+      <c r="A124" s="19"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="19"/>
+      <c r="D124" s="19"/>
+      <c r="E124" s="19"/>
       <c r="F124" s="9"/>
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
@@ -4475,13 +4590,13 @@
       <c r="I126" s="6"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="25" t="s">
+      <c r="A127" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B127" s="25"/>
-      <c r="C127" s="25"/>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="19"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
       <c r="F127" s="2" t="s">
         <v>1</v>
       </c>
@@ -4496,11 +4611,11 @@
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
-      <c r="B128" s="25"/>
-      <c r="C128" s="25"/>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
+      <c r="A128" s="19"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="E128" s="19"/>
       <c r="F128" s="9"/>
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
@@ -4529,13 +4644,13 @@
       <c r="I130" s="6"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="25" t="s">
+      <c r="A131" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B131" s="25"/>
-      <c r="C131" s="25"/>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="19"/>
+      <c r="D131" s="19"/>
+      <c r="E131" s="19"/>
       <c r="F131" s="2" t="s">
         <v>1</v>
       </c>
@@ -4550,11 +4665,11 @@
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="25"/>
-      <c r="B132" s="25"/>
-      <c r="C132" s="25"/>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
+      <c r="A132" s="19"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="19"/>
+      <c r="D132" s="19"/>
+      <c r="E132" s="19"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
@@ -4583,13 +4698,13 @@
       <c r="I134" s="6"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="25" t="s">
+      <c r="A135" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B135" s="25"/>
-      <c r="C135" s="25"/>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="19"/>
+      <c r="D135" s="19"/>
+      <c r="E135" s="19"/>
       <c r="F135" s="2" t="s">
         <v>1</v>
       </c>
@@ -4604,11 +4719,11 @@
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="25"/>
-      <c r="B136" s="25"/>
-      <c r="C136" s="25"/>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
+      <c r="A136" s="19"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="19"/>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
       <c r="F136" s="9"/>
       <c r="G136" s="9"/>
       <c r="H136" s="9"/>
@@ -4637,13 +4752,13 @@
       <c r="I138" s="6"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="25" t="s">
+      <c r="A139" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B139" s="25"/>
-      <c r="C139" s="25"/>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="19"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
       <c r="F139" s="2" t="s">
         <v>1</v>
       </c>
@@ -4658,11 +4773,11 @@
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="25"/>
-      <c r="B140" s="25"/>
-      <c r="C140" s="25"/>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
+      <c r="A140" s="19"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="19"/>
+      <c r="D140" s="19"/>
+      <c r="E140" s="19"/>
       <c r="F140" s="9"/>
       <c r="G140" s="9"/>
       <c r="H140" s="9"/>
@@ -4691,13 +4806,13 @@
       <c r="I142" s="6"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="25" t="s">
+      <c r="A143" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B143" s="25"/>
-      <c r="C143" s="25"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="19"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
       <c r="F143" s="2" t="s">
         <v>1</v>
       </c>
@@ -4712,11 +4827,11 @@
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="25"/>
-      <c r="B144" s="25"/>
-      <c r="C144" s="25"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
+      <c r="A144" s="19"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="19"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
       <c r="F144" s="9"/>
       <c r="G144" s="9"/>
       <c r="H144" s="9"/>
@@ -4735,6 +4850,51 @@
     </row>
   </sheetData>
   <mergeCells count="61">
+    <mergeCell ref="A56:E57"/>
+    <mergeCell ref="A60:I60"/>
+    <mergeCell ref="A79:E80"/>
+    <mergeCell ref="A63:E64"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="A71:E72"/>
+    <mergeCell ref="A75:E76"/>
+    <mergeCell ref="M52:O58"/>
+    <mergeCell ref="P53:T53"/>
+    <mergeCell ref="P55:T55"/>
+    <mergeCell ref="P57:T57"/>
+    <mergeCell ref="M36:O42"/>
+    <mergeCell ref="P37:T37"/>
+    <mergeCell ref="P39:T39"/>
+    <mergeCell ref="P41:T41"/>
+    <mergeCell ref="M44:O50"/>
+    <mergeCell ref="P45:T45"/>
+    <mergeCell ref="P47:T47"/>
+    <mergeCell ref="P49:T49"/>
+    <mergeCell ref="M28:O34"/>
+    <mergeCell ref="P29:T29"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P33:T33"/>
+    <mergeCell ref="P13:T13"/>
+    <mergeCell ref="P15:T15"/>
+    <mergeCell ref="P17:T17"/>
+    <mergeCell ref="M12:O18"/>
+    <mergeCell ref="A28:E29"/>
+    <mergeCell ref="A52:E53"/>
+    <mergeCell ref="A48:E49"/>
+    <mergeCell ref="A44:E45"/>
+    <mergeCell ref="A40:E41"/>
+    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="A1:T9"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A16:E17"/>
+    <mergeCell ref="A20:E21"/>
+    <mergeCell ref="A24:E25"/>
+    <mergeCell ref="M20:O26"/>
+    <mergeCell ref="P21:T21"/>
+    <mergeCell ref="P23:T23"/>
+    <mergeCell ref="P25:T25"/>
+    <mergeCell ref="M11:T11"/>
+    <mergeCell ref="A11:I11"/>
     <mergeCell ref="A135:E136"/>
     <mergeCell ref="A139:E140"/>
     <mergeCell ref="A143:E144"/>
@@ -4751,51 +4911,6 @@
     <mergeCell ref="A103:E104"/>
     <mergeCell ref="A107:E108"/>
     <mergeCell ref="A115:E116"/>
-    <mergeCell ref="A1:T9"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A16:E17"/>
-    <mergeCell ref="A20:E21"/>
-    <mergeCell ref="A24:E25"/>
-    <mergeCell ref="M20:O26"/>
-    <mergeCell ref="P21:T21"/>
-    <mergeCell ref="P23:T23"/>
-    <mergeCell ref="P25:T25"/>
-    <mergeCell ref="M11:T11"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="A28:E29"/>
-    <mergeCell ref="A52:E53"/>
-    <mergeCell ref="A48:E49"/>
-    <mergeCell ref="A44:E45"/>
-    <mergeCell ref="A40:E41"/>
-    <mergeCell ref="A36:E37"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="M28:O34"/>
-    <mergeCell ref="P29:T29"/>
-    <mergeCell ref="P31:T31"/>
-    <mergeCell ref="P33:T33"/>
-    <mergeCell ref="P13:T13"/>
-    <mergeCell ref="P15:T15"/>
-    <mergeCell ref="P17:T17"/>
-    <mergeCell ref="M12:O18"/>
-    <mergeCell ref="M52:O58"/>
-    <mergeCell ref="P53:T53"/>
-    <mergeCell ref="P55:T55"/>
-    <mergeCell ref="P57:T57"/>
-    <mergeCell ref="M36:O42"/>
-    <mergeCell ref="P37:T37"/>
-    <mergeCell ref="P39:T39"/>
-    <mergeCell ref="P41:T41"/>
-    <mergeCell ref="M44:O50"/>
-    <mergeCell ref="P45:T45"/>
-    <mergeCell ref="P47:T47"/>
-    <mergeCell ref="P49:T49"/>
-    <mergeCell ref="A56:E57"/>
-    <mergeCell ref="A60:I60"/>
-    <mergeCell ref="A79:E80"/>
-    <mergeCell ref="A63:E64"/>
-    <mergeCell ref="A67:E68"/>
-    <mergeCell ref="A71:E72"/>
-    <mergeCell ref="A75:E76"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/others/Experiment Results.xlsx
+++ b/others/Experiment Results.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D259E145-E356-4706-A2A1-C031AA83D0C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9016F79F-468B-4C1F-A649-9D85894CE5D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="133">
   <si>
     <t>CNV单目标分割</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -385,34 +385,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>baseline(ResUNet_concat)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseline+pspmodule+resupsample</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>baseline+pspmodule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8679±0.0219</t>
-  </si>
-  <si>
-    <t>0.8294±0.0249</t>
-  </si>
-  <si>
-    <t>0.8911±0.0389</t>
-  </si>
-  <si>
-    <t>0.9990±0.0006</t>
-  </si>
-  <si>
-    <t>baseline+pspmodule+resupsample+drop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0.8498±0.0214</t>
   </si>
   <si>
@@ -427,6 +399,73 @@
   <si>
     <t>SPPResUNet</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8589±0.0234</t>
+  </si>
+  <si>
+    <t>0.8188±0.0279</t>
+  </si>
+  <si>
+    <t>0.8775±0.0370</t>
+  </si>
+  <si>
+    <t>0.9991±0.0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.8240±0.0252</t>
+  </si>
+  <si>
+    <t>0.8908±0.0311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">0.8636±0.0226       </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9990±0.0006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backbone+pspmodule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backbone+pspmodule+resupsample</t>
+  </si>
+  <si>
+    <t>backbone+su</t>
+  </si>
+  <si>
+    <t>backbone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8201±0.0220</t>
+  </si>
+  <si>
+    <t>0.8846±0.0446</t>
+  </si>
+  <si>
+    <t>0.8545±0.0185</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2UNet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7522±0.0375</t>
+  </si>
+  <si>
+    <t>0.7225±0.0185</t>
+  </si>
+  <si>
+    <t>0.7860±0.0613</t>
+  </si>
+  <si>
+    <t>0.9983±0.0015</t>
   </si>
 </sst>
 </file>
@@ -611,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -689,6 +728,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -698,13 +752,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -725,6 +773,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -733,15 +784,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1237,21 +1279,21 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="28" t="s">
+      <c r="O6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="28"/>
-      <c r="R6" s="29"/>
-      <c r="S6" s="31"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="31"/>
-      <c r="V6" s="29"/>
-      <c r="W6" s="31"/>
-      <c r="X6" s="29"/>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="29"/>
-      <c r="AA6" s="30"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="35"/>
       <c r="AB6" s="8"/>
       <c r="AC6" s="8"/>
       <c r="AD6" s="8"/>
@@ -1264,20 +1306,20 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="29" t="s">
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="30"/>
-      <c r="V7" s="30"/>
-      <c r="W7" s="30"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="30"/>
-      <c r="Z7" s="31"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
+      <c r="W7" s="35"/>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="36"/>
       <c r="AA7" s="8"/>
       <c r="AB7" s="8"/>
       <c r="AC7" s="8"/>
@@ -1291,18 +1333,18 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="10"/>
-      <c r="O8" s="28"/>
-      <c r="P8" s="28"/>
-      <c r="Q8" s="28"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="31"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="31"/>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="31"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="36"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="36"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="36"/>
       <c r="AA8" s="8"/>
       <c r="AB8" s="8"/>
       <c r="AC8" s="8"/>
@@ -1316,20 +1358,20 @@
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="10"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29" t="s">
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
-      <c r="W9" s="30"/>
-      <c r="X9" s="30"/>
-      <c r="Y9" s="30"/>
-      <c r="Z9" s="31"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
+      <c r="W9" s="35"/>
+      <c r="X9" s="35"/>
+      <c r="Y9" s="35"/>
+      <c r="Z9" s="36"/>
       <c r="AA9" s="8"/>
       <c r="AB9" s="8"/>
       <c r="AC9" s="8"/>
@@ -1343,18 +1385,18 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="10"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="30"/>
-      <c r="Z10" s="31"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="36"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="35"/>
+      <c r="Z10" s="36"/>
       <c r="AA10" s="8"/>
       <c r="AB10" s="8"/>
       <c r="AC10" s="8"/>
@@ -1378,20 +1420,20 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29" t="s">
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="31"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="35"/>
+      <c r="X11" s="35"/>
+      <c r="Y11" s="35"/>
+      <c r="Z11" s="36"/>
       <c r="AA11" s="8"/>
       <c r="AB11" s="8"/>
       <c r="AC11" s="8"/>
@@ -1401,11 +1443,11 @@
       <c r="AG11" s="8"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -1418,15 +1460,15 @@
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
       <c r="Q12" s="8"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="30"/>
-      <c r="Z12" s="31"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="36"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="35"/>
+      <c r="Z12" s="36"/>
       <c r="AA12" s="8"/>
       <c r="AB12" s="8"/>
       <c r="AC12" s="8"/>
@@ -1436,11 +1478,11 @@
       <c r="AG12" s="8"/>
     </row>
     <row r="13" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -1504,10 +1546,10 @@
     </row>
     <row r="15" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -1536,10 +1578,10 @@
     </row>
     <row r="16" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
@@ -1811,20 +1853,20 @@
       <c r="AG26" s="8"/>
     </row>
     <row r="27" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
@@ -1846,20 +1888,20 @@
       <c r="AG27" s="8"/>
     </row>
     <row r="28" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
       <c r="Q28" s="8"/>
@@ -1916,20 +1958,20 @@
       <c r="AG29" s="8"/>
     </row>
     <row r="30" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
@@ -1951,20 +1993,20 @@
       <c r="AG30" s="8"/>
     </row>
     <row r="31" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
@@ -2141,125 +2183,125 @@
     <row r="45" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="34"/>
-      <c r="C47" s="34"/>
-      <c r="D47" s="34"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34"/>
-      <c r="H47" s="34"/>
-      <c r="I47" s="34"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="34"/>
-      <c r="M47" s="34"/>
-      <c r="N47" s="34"/>
-      <c r="O47" s="34"/>
-      <c r="P47" s="34"/>
-      <c r="Q47" s="34"/>
-      <c r="R47" s="34"/>
-      <c r="S47" s="34"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="Q47" s="32"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
     </row>
     <row r="48" spans="1:33" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="34"/>
-      <c r="C48" s="34"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="34"/>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="34"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="34"/>
-      <c r="O48" s="34"/>
-      <c r="P48" s="34"/>
-      <c r="Q48" s="34"/>
-      <c r="R48" s="34"/>
-      <c r="S48" s="34"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="Q48" s="32"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="34"/>
-      <c r="B49" s="34"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="34"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="34"/>
-      <c r="M49" s="34"/>
-      <c r="N49" s="34"/>
-      <c r="O49" s="34"/>
-      <c r="P49" s="34"/>
-      <c r="Q49" s="34"/>
-      <c r="R49" s="34"/>
-      <c r="S49" s="34"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="Q49" s="32"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
     </row>
     <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="34"/>
-      <c r="B50" s="34"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="34"/>
-      <c r="M50" s="34"/>
-      <c r="N50" s="34"/>
-      <c r="O50" s="34"/>
-      <c r="P50" s="34"/>
-      <c r="Q50" s="34"/>
-      <c r="R50" s="34"/>
-      <c r="S50" s="34"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="Q50" s="32"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
-      <c r="S51" s="32"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="Q51" s="31"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="5"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -2267,20 +2309,20 @@
       <c r="S52" s="5"/>
     </row>
     <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="34"/>
-      <c r="B53" s="34"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
       <c r="O53" s="3"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
@@ -2309,20 +2351,20 @@
       <c r="S54" s="3"/>
     </row>
     <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
+      <c r="A55" s="31"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="31"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
@@ -2330,20 +2372,20 @@
       <c r="S55" s="3"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
+      <c r="A56" s="31"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
-      <c r="K56" s="32"/>
-      <c r="L56" s="32"/>
-      <c r="M56" s="32"/>
-      <c r="N56" s="32"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="31"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="31"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
@@ -2372,20 +2414,20 @@
       <c r="S57" s="3"/>
     </row>
     <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="32"/>
-      <c r="B58" s="32"/>
-      <c r="C58" s="32"/>
-      <c r="D58" s="32"/>
-      <c r="E58" s="32"/>
+      <c r="A58" s="31"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
-      <c r="K58" s="32"/>
-      <c r="L58" s="32"/>
-      <c r="M58" s="32"/>
-      <c r="N58" s="32"/>
+      <c r="K58" s="31"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="31"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -2393,20 +2435,20 @@
       <c r="S58" s="5"/>
     </row>
     <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="32"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="32"/>
-      <c r="D59" s="32"/>
-      <c r="E59" s="32"/>
+      <c r="A59" s="31"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
-      <c r="K59" s="32"/>
-      <c r="L59" s="32"/>
-      <c r="M59" s="32"/>
-      <c r="N59" s="32"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="31"/>
       <c r="O59" s="3"/>
       <c r="P59" s="3"/>
       <c r="Q59" s="3"/>
@@ -2428,27 +2470,6 @@
     <row r="72" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="A55:E56"/>
-    <mergeCell ref="K55:N56"/>
-    <mergeCell ref="A58:E59"/>
-    <mergeCell ref="K58:N59"/>
-    <mergeCell ref="A52:E53"/>
-    <mergeCell ref="K52:N53"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="B18:E19"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A47:S50"/>
-    <mergeCell ref="A51:S51"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="K27:N28"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="K30:N31"/>
-    <mergeCell ref="X12:Z12"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:W12"/>
     <mergeCell ref="O6:Q11"/>
     <mergeCell ref="R7:Z7"/>
     <mergeCell ref="R10:S10"/>
@@ -2464,6 +2485,27 @@
     <mergeCell ref="V8:W8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="R8:S8"/>
+    <mergeCell ref="X12:Z12"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="B18:E19"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A47:S50"/>
+    <mergeCell ref="A51:S51"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="K27:N28"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="K30:N31"/>
+    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="K55:N56"/>
+    <mergeCell ref="A58:E59"/>
+    <mergeCell ref="K58:N59"/>
+    <mergeCell ref="A52:E53"/>
+    <mergeCell ref="K52:N53"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2475,8 +2517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4FBBDD5-C379-4010-B330-FEF59647FB41}">
   <dimension ref="A1:AC145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2489,96 +2531,96 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
-      <c r="P1" s="46"/>
-      <c r="Q1" s="46"/>
-      <c r="R1" s="46"/>
-      <c r="S1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="29"/>
       <c r="T1" s="22"/>
       <c r="U1" s="12"/>
     </row>
     <row r="2" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="45"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="44"/>
+      <c r="O2" s="44"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="30"/>
       <c r="T2" s="23"/>
       <c r="U2" s="12"/>
     </row>
     <row r="3" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-      <c r="O3" s="46"/>
-      <c r="P3" s="46"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="46"/>
-      <c r="S3" s="45"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="44"/>
+      <c r="S3" s="30"/>
       <c r="T3" s="23"/>
       <c r="U3" s="12"/>
     </row>
     <row r="4" spans="1:29" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="45"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44"/>
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="S4" s="30"/>
       <c r="T4" s="23"/>
       <c r="U4" s="12"/>
     </row>
@@ -2675,131 +2717,131 @@
       <c r="U8" s="12"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
       <c r="T9" s="23"/>
-      <c r="U9" s="28" t="s">
+      <c r="U9" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="V9" s="28"/>
-      <c r="W9" s="28"/>
-      <c r="X9" s="28"/>
-      <c r="Y9" s="28"/>
-      <c r="Z9" s="28"/>
-      <c r="AA9" s="28"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="28"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="28"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
       <c r="T10" s="23"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="28"/>
-      <c r="W10" s="28"/>
-      <c r="X10" s="28"/>
-      <c r="Y10" s="28"/>
-      <c r="Z10" s="28"/>
-      <c r="AA10" s="28"/>
-      <c r="AB10" s="28"/>
-      <c r="AC10" s="28"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="28"/>
-      <c r="L11" s="28"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="28"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
       <c r="S11" s="8"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="42"/>
-      <c r="AB11" s="42"/>
-      <c r="AC11" s="43"/>
+      <c r="V11" s="46"/>
+      <c r="W11" s="46"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="46"/>
+      <c r="Z11" s="46"/>
+      <c r="AA11" s="46"/>
+      <c r="AB11" s="46"/>
+      <c r="AC11" s="47"/>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
       <c r="S12" s="8"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="35" t="s">
+      <c r="U12" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="V12" s="36"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="37"/>
+      <c r="V12" s="39"/>
+      <c r="W12" s="39"/>
+      <c r="X12" s="40"/>
       <c r="Y12" s="18" t="s">
         <v>52</v>
       </c>
@@ -2817,33 +2859,33 @@
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="35" t="s">
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="O13" s="36"/>
-      <c r="P13" s="36"/>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="37"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="40"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="38"/>
-      <c r="V13" s="39"/>
-      <c r="W13" s="39"/>
-      <c r="X13" s="40"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="43"/>
       <c r="Y13" s="18">
         <v>41099651</v>
       </c>
@@ -2861,24 +2903,24 @@
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A14" s="39"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39"/>
-      <c r="M14" s="39"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="43"/>
       <c r="T14" s="5"/>
       <c r="U14" s="21"/>
       <c r="V14" s="21"/>
@@ -2891,12 +2933,12 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="37"/>
+      <c r="A15" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="18" t="s">
         <v>52</v>
       </c>
@@ -2912,12 +2954,12 @@
       <c r="I15" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="J15" s="35" t="s">
+      <c r="J15" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="37"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="40"/>
       <c r="N15" s="27" t="s">
         <v>52</v>
       </c>
@@ -2945,29 +2987,29 @@
       <c r="AC15" s="21"/>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A16" s="38"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="27">
-        <v>27772613</v>
+      <c r="A16" s="41"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="28">
+        <v>41099651</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="40"/>
+        <v>24</v>
+      </c>
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
       <c r="N16" s="27">
         <v>9887137</v>
       </c>
@@ -2984,12 +3026,12 @@
         <v>63</v>
       </c>
       <c r="T16" s="5"/>
-      <c r="U16" s="35" t="s">
+      <c r="U16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="V16" s="36"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="39"/>
+      <c r="X16" s="40"/>
       <c r="Y16" s="18" t="s">
         <v>52</v>
       </c>
@@ -3017,10 +3059,10 @@
       <c r="Q17" s="25"/>
       <c r="R17" s="25"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="39"/>
-      <c r="W17" s="39"/>
-      <c r="X17" s="40"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="43"/>
       <c r="Y17" s="18">
         <v>9887137</v>
       </c>
@@ -3048,12 +3090,12 @@
       <c r="AC18" s="21"/>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="37"/>
+      <c r="A19" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="27" t="s">
         <v>52</v>
       </c>
@@ -3069,12 +3111,12 @@
       <c r="I19" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="35" t="s">
+      <c r="J19" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
       <c r="N19" s="27" t="s">
         <v>52</v>
       </c>
@@ -3099,10 +3141,10 @@
       <c r="Z19" s="3"/>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
       <c r="E20" s="18">
         <v>41099651</v>
       </c>
@@ -3118,10 +3160,10 @@
       <c r="I20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J20" s="38"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39"/>
-      <c r="M20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="27">
         <v>26961801</v>
       </c>
@@ -3138,12 +3180,12 @@
         <v>89</v>
       </c>
       <c r="T20" s="5"/>
-      <c r="U20" s="28" t="s">
+      <c r="U20" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
       <c r="Y20" s="18" t="s">
         <v>52</v>
       </c>
@@ -3171,10 +3213,10 @@
       <c r="Q21" s="8"/>
       <c r="R21" s="8"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
       <c r="Y21" s="18"/>
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
@@ -3199,33 +3241,33 @@
       <c r="AC22" s="8"/>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="27" t="s">
+      <c r="A23" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="27" t="s">
+      <c r="F23" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H23" s="27" t="s">
+      <c r="H23" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="27" t="s">
+      <c r="I23" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J23" s="35" t="s">
+      <c r="J23" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="K23" s="36"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
+      <c r="K23" s="39"/>
+      <c r="L23" s="39"/>
+      <c r="M23" s="40"/>
       <c r="N23" s="27" t="s">
         <v>52</v>
       </c>
@@ -3249,29 +3291,29 @@
       <c r="Y23" s="20"/>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="27">
-        <v>27772613</v>
+      <c r="A24" s="41"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="28">
+        <v>41090243</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>84</v>
+        <v>118</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J24" s="38"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="40"/>
+        <v>120</v>
+      </c>
+      <c r="J24" s="41"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="27">
         <v>21650625</v>
       </c>
@@ -3288,12 +3330,12 @@
         <v>79</v>
       </c>
       <c r="T24" s="5"/>
-      <c r="U24" s="35" t="s">
+      <c r="U24" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V24" s="36"/>
-      <c r="W24" s="36"/>
-      <c r="X24" s="36"/>
+      <c r="V24" s="39"/>
+      <c r="W24" s="39"/>
+      <c r="X24" s="39"/>
       <c r="Y24" s="18" t="s">
         <v>52</v>
       </c>
@@ -3321,10 +3363,10 @@
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="38"/>
-      <c r="V25" s="39"/>
-      <c r="W25" s="39"/>
-      <c r="X25" s="39"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="42"/>
+      <c r="W25" s="42"/>
+      <c r="X25" s="42"/>
       <c r="Y25" s="18"/>
       <c r="Z25" s="6"/>
       <c r="AA25" s="6"/>
@@ -3353,33 +3395,33 @@
       <c r="AC26" s="8"/>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A27" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="27" t="s">
+      <c r="A27" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="J27" s="35" t="s">
+      <c r="J27" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="40"/>
       <c r="N27" s="27" t="s">
         <v>52</v>
       </c>
@@ -3407,29 +3449,29 @@
       <c r="AC27" s="3"/>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="27">
-        <v>41090243</v>
+      <c r="A28" s="41"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="28">
+        <v>23835907</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="40"/>
+        <v>116</v>
+      </c>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="43"/>
       <c r="N28" s="27">
         <v>43273058</v>
       </c>
@@ -3446,12 +3488,12 @@
         <v>79</v>
       </c>
       <c r="T28" s="5"/>
-      <c r="U28" s="35" t="s">
+      <c r="U28" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="V28" s="36"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
+      <c r="V28" s="39"/>
+      <c r="W28" s="39"/>
+      <c r="X28" s="40"/>
       <c r="Y28" s="18" t="s">
         <v>52</v>
       </c>
@@ -3479,10 +3521,10 @@
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="39"/>
-      <c r="W29" s="39"/>
-      <c r="X29" s="40"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="42"/>
+      <c r="W29" s="42"/>
+      <c r="X29" s="43"/>
       <c r="Y29" s="18">
         <v>43273058</v>
       </c>
@@ -3513,10 +3555,10 @@
       <c r="AC30" s="8"/>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
       <c r="E31" s="27" t="s">
         <v>52</v>
       </c>
@@ -3532,12 +3574,12 @@
       <c r="I31" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J31" s="35" t="s">
+      <c r="J31" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="K31" s="36"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="40"/>
       <c r="N31" s="27" t="s">
         <v>52</v>
       </c>
@@ -3565,19 +3607,19 @@
       <c r="AC31" s="3"/>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="27"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="28"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="I32" s="6"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="40"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="43"/>
       <c r="N32" s="27">
         <v>28996821</v>
       </c>
@@ -3594,12 +3636,12 @@
         <v>72</v>
       </c>
       <c r="T32" s="5"/>
-      <c r="U32" s="35" t="s">
+      <c r="U32" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="V32" s="36"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="37"/>
+      <c r="V32" s="39"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="40"/>
       <c r="Y32" s="18" t="s">
         <v>52</v>
       </c>
@@ -3627,10 +3669,10 @@
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
       <c r="T33" s="5"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="39"/>
-      <c r="W33" s="39"/>
-      <c r="X33" s="40"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="42"/>
+      <c r="W33" s="42"/>
+      <c r="X33" s="43"/>
       <c r="Y33" s="18">
         <v>28996821</v>
       </c>
@@ -3661,10 +3703,10 @@
       <c r="AC34" s="8"/>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="37"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
       <c r="E35" s="27" t="s">
         <v>52</v>
       </c>
@@ -3680,12 +3722,12 @@
       <c r="I35" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J35" s="35" t="s">
+      <c r="J35" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="37"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="40"/>
       <c r="N35" s="27" t="s">
         <v>52</v>
       </c>
@@ -3713,19 +3755,19 @@
       <c r="AC35" s="3"/>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="27"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="28"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
       <c r="I36" s="6"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="39"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="40"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="43"/>
       <c r="N36" s="27">
         <v>59332897</v>
       </c>
@@ -3742,12 +3784,12 @@
         <v>68</v>
       </c>
       <c r="T36" s="8"/>
-      <c r="U36" s="35" t="s">
+      <c r="U36" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="V36" s="36"/>
-      <c r="W36" s="36"/>
-      <c r="X36" s="37"/>
+      <c r="V36" s="39"/>
+      <c r="W36" s="39"/>
+      <c r="X36" s="40"/>
       <c r="Y36" s="18" t="s">
         <v>52</v>
       </c>
@@ -3775,10 +3817,10 @@
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
       <c r="T37" s="8"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="39"/>
-      <c r="W37" s="39"/>
-      <c r="X37" s="40"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="42"/>
+      <c r="W37" s="42"/>
+      <c r="X37" s="43"/>
       <c r="Y37" s="18">
         <v>59332897</v>
       </c>
@@ -3809,10 +3851,10 @@
       <c r="AC38" s="8"/>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="37"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
       <c r="E39" s="27" t="s">
         <v>52</v>
       </c>
@@ -3828,12 +3870,12 @@
       <c r="I39" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J39" s="35" t="s">
+      <c r="J39" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="37"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="40"/>
       <c r="N39" s="27" t="s">
         <v>52</v>
       </c>
@@ -3861,19 +3903,19 @@
       <c r="AC39" s="8"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="40"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
       <c r="E40" s="27"/>
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="I40" s="6"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="40"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="43"/>
       <c r="N40" s="27">
         <v>27772613</v>
       </c>
@@ -3890,12 +3932,12 @@
         <v>85</v>
       </c>
       <c r="T40" s="8"/>
-      <c r="U40" s="35" t="s">
+      <c r="U40" s="38" t="s">
         <v>90</v>
       </c>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="37"/>
+      <c r="V40" s="39"/>
+      <c r="W40" s="39"/>
+      <c r="X40" s="40"/>
       <c r="Y40" s="18" t="s">
         <v>52</v>
       </c>
@@ -3923,10 +3965,10 @@
       <c r="Q41" s="8"/>
       <c r="R41" s="8"/>
       <c r="T41" s="8"/>
-      <c r="U41" s="38"/>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
-      <c r="X41" s="40"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="42"/>
+      <c r="W41" s="42"/>
+      <c r="X41" s="43"/>
       <c r="Y41" s="18">
         <v>27772613</v>
       </c>
@@ -3965,10 +4007,10 @@
       <c r="AC42" s="8"/>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="37"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
       <c r="E43" s="27" t="s">
         <v>52</v>
       </c>
@@ -3984,12 +4026,12 @@
       <c r="I43" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J43" s="35" t="s">
+      <c r="J43" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="37"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="39"/>
+      <c r="M43" s="40"/>
       <c r="N43" s="27" t="s">
         <v>52</v>
       </c>
@@ -4017,19 +4059,19 @@
       <c r="AC43" s="8"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="40"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="43"/>
       <c r="E44" s="27"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
       <c r="I44" s="6"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="39"/>
-      <c r="M44" s="40"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="43"/>
       <c r="N44" s="27">
         <v>9904034</v>
       </c>
@@ -4046,10 +4088,10 @@
         <v>102</v>
       </c>
       <c r="T44" s="8"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="36"/>
-      <c r="W44" s="36"/>
-      <c r="X44" s="37"/>
+      <c r="U44" s="38"/>
+      <c r="V44" s="39"/>
+      <c r="W44" s="39"/>
+      <c r="X44" s="40"/>
       <c r="Y44" s="18" t="s">
         <v>52</v>
       </c>
@@ -4077,10 +4119,10 @@
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
       <c r="T45" s="8"/>
-      <c r="U45" s="38"/>
-      <c r="V45" s="39"/>
-      <c r="W45" s="39"/>
-      <c r="X45" s="40"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="43"/>
       <c r="Y45" s="18"/>
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
@@ -4109,10 +4151,10 @@
       <c r="AC46" s="8"/>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A47" s="35"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="37"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="27" t="s">
         <v>52</v>
       </c>
@@ -4128,12 +4170,12 @@
       <c r="I47" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J47" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="37"/>
+      <c r="J47" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="K47" s="39"/>
+      <c r="L47" s="39"/>
+      <c r="M47" s="40"/>
       <c r="N47" s="27" t="s">
         <v>52</v>
       </c>
@@ -4161,39 +4203,39 @@
       <c r="AC47" s="8"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A48" s="38"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="40"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="27"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="I48" s="6"/>
-      <c r="J48" s="38"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="39"/>
-      <c r="M48" s="40"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="43"/>
       <c r="N48" s="27">
         <v>22914817</v>
       </c>
       <c r="O48" s="6" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P48" s="6" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="Q48" s="6" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="R48" s="6" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="T48" s="8"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="36"/>
-      <c r="W48" s="36"/>
-      <c r="X48" s="37"/>
+      <c r="U48" s="38"/>
+      <c r="V48" s="39"/>
+      <c r="W48" s="39"/>
+      <c r="X48" s="40"/>
       <c r="Y48" s="18" t="s">
         <v>52</v>
       </c>
@@ -4221,10 +4263,10 @@
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
       <c r="T49" s="8"/>
-      <c r="U49" s="38"/>
-      <c r="V49" s="39"/>
-      <c r="W49" s="39"/>
-      <c r="X49" s="40"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="43"/>
       <c r="Y49" s="18"/>
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
@@ -4253,10 +4295,10 @@
       <c r="AC50" s="8"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A51" s="35"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="37"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="40"/>
       <c r="E51" s="27" t="s">
         <v>52</v>
       </c>
@@ -4272,10 +4314,12 @@
       <c r="I51" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J51" s="35"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="37"/>
+      <c r="J51" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="K51" s="39"/>
+      <c r="L51" s="39"/>
+      <c r="M51" s="40"/>
       <c r="N51" s="27" t="s">
         <v>52</v>
       </c>
@@ -4303,29 +4347,39 @@
       <c r="AC51" s="8"/>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A52" s="38"/>
-      <c r="B52" s="39"/>
-      <c r="C52" s="39"/>
-      <c r="D52" s="40"/>
+      <c r="A52" s="41"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="27"/>
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
-      <c r="J52" s="38"/>
-      <c r="K52" s="39"/>
-      <c r="L52" s="39"/>
-      <c r="M52" s="40"/>
-      <c r="N52" s="27"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="43"/>
+      <c r="N52" s="28">
+        <v>2447633</v>
+      </c>
+      <c r="O52" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P52" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q52" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="R52" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="T52" s="8"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="36"/>
-      <c r="W52" s="36"/>
-      <c r="X52" s="37"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="39"/>
+      <c r="W52" s="39"/>
+      <c r="X52" s="40"/>
       <c r="Y52" s="18" t="s">
         <v>52</v>
       </c>
@@ -4353,10 +4407,10 @@
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
       <c r="T53" s="8"/>
-      <c r="U53" s="38"/>
-      <c r="V53" s="39"/>
-      <c r="W53" s="39"/>
-      <c r="X53" s="40"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="43"/>
       <c r="Y53" s="18"/>
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
@@ -4385,10 +4439,10 @@
       <c r="AC54" s="8"/>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A55" s="35"/>
-      <c r="B55" s="36"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="37"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="40"/>
       <c r="E55" s="27" t="s">
         <v>52</v>
       </c>
@@ -4404,10 +4458,10 @@
       <c r="I55" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="J55" s="35"/>
-      <c r="K55" s="36"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="37"/>
+      <c r="J55" s="38"/>
+      <c r="K55" s="39"/>
+      <c r="L55" s="39"/>
+      <c r="M55" s="40"/>
       <c r="N55" s="27" t="s">
         <v>52</v>
       </c>
@@ -4435,29 +4489,29 @@
       <c r="AC55" s="8"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
-      <c r="D56" s="40"/>
+      <c r="A56" s="41"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="43"/>
       <c r="E56" s="27"/>
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
-      <c r="J56" s="38"/>
-      <c r="K56" s="39"/>
-      <c r="L56" s="39"/>
-      <c r="M56" s="40"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="43"/>
       <c r="N56" s="27"/>
       <c r="O56" s="6"/>
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
       <c r="R56" s="6"/>
       <c r="T56" s="8"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="36"/>
-      <c r="W56" s="36"/>
-      <c r="X56" s="37"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="39"/>
+      <c r="W56" s="39"/>
+      <c r="X56" s="40"/>
       <c r="Y56" s="18" t="s">
         <v>52</v>
       </c>
@@ -4477,10 +4531,10 @@
     <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="J57" s="3"/>
       <c r="T57" s="8"/>
-      <c r="U57" s="38"/>
-      <c r="V57" s="39"/>
-      <c r="W57" s="39"/>
-      <c r="X57" s="40"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="43"/>
       <c r="Y57" s="18"/>
       <c r="Z57" s="6"/>
       <c r="AA57" s="6"/>
@@ -4646,17 +4700,17 @@
       <c r="T70" s="8"/>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A71" s="28" t="s">
+      <c r="A71" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="37"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="37"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
       <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
@@ -4669,15 +4723,15 @@
       <c r="T71" s="8"/>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A72" s="28"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="37"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
       <c r="K72" s="8"/>
       <c r="L72" s="8"/>
       <c r="M72" s="8"/>
@@ -4690,17 +4744,17 @@
       <c r="T72" s="8"/>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A73" s="41" t="s">
+      <c r="A73" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B73" s="42"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="42"/>
-      <c r="G73" s="42"/>
-      <c r="H73" s="42"/>
-      <c r="I73" s="43"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="46"/>
+      <c r="F73" s="46"/>
+      <c r="G73" s="46"/>
+      <c r="H73" s="46"/>
+      <c r="I73" s="47"/>
       <c r="K73" s="8"/>
       <c r="L73" s="8"/>
       <c r="M73" s="8"/>
@@ -4713,12 +4767,12 @@
       <c r="T73" s="8"/>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
+      <c r="A74" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="36"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="37"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="40"/>
       <c r="E74" s="13" t="s">
         <v>52</v>
       </c>
@@ -4746,10 +4800,10 @@
       <c r="T74" s="8"/>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A75" s="38"/>
-      <c r="B75" s="39"/>
-      <c r="C75" s="39"/>
-      <c r="D75" s="40"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="42"/>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
       <c r="E75" s="13" t="s">
         <v>53</v>
       </c>
@@ -4819,12 +4873,12 @@
       <c r="T77" s="8"/>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="36"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="37"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="40"/>
       <c r="E78" s="13" t="s">
         <v>52</v>
       </c>
@@ -4852,10 +4906,10 @@
       <c r="T78" s="8"/>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A79" s="38"/>
-      <c r="B79" s="39"/>
-      <c r="C79" s="39"/>
-      <c r="D79" s="40"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="42"/>
+      <c r="C79" s="42"/>
+      <c r="D79" s="43"/>
       <c r="E79" s="13" t="s">
         <v>55</v>
       </c>
@@ -4922,13 +4976,13 @@
       <c r="T81" s="8"/>
     </row>
     <row r="82" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A82" s="35" t="s">
+      <c r="A82" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="36"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="36"/>
-      <c r="E82" s="37"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="40"/>
       <c r="F82" s="2" t="s">
         <v>1</v>
       </c>
@@ -4953,11 +5007,11 @@
       <c r="T82" s="8"/>
     </row>
     <row r="83" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A83" s="38"/>
-      <c r="B83" s="39"/>
-      <c r="C83" s="39"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="40"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="42"/>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="43"/>
       <c r="F83" s="6" t="s">
         <v>21</v>
       </c>
@@ -5020,13 +5074,13 @@
       <c r="T85" s="8"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="37"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="37"/>
       <c r="F86" s="2" t="s">
         <v>1</v>
       </c>
@@ -5051,11 +5105,11 @@
       <c r="T86" s="8"/>
     </row>
     <row r="87" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A87" s="28"/>
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="37"/>
+      <c r="C87" s="37"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
       <c r="F87" s="6" t="s">
         <v>26</v>
       </c>
@@ -5121,12 +5175,12 @@
       <c r="S89" s="3"/>
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
+      <c r="A90" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B90" s="36"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="37"/>
+      <c r="B90" s="39"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="40"/>
       <c r="E90" s="13" t="s">
         <v>52</v>
       </c>
@@ -5142,21 +5196,21 @@
       <c r="I90" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K90" s="34"/>
-      <c r="L90" s="34"/>
-      <c r="M90" s="34"/>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="32"/>
       <c r="P90" s="25"/>
       <c r="Q90" s="25"/>
       <c r="R90" s="25"/>
       <c r="S90" s="25"/>
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A91" s="38"/>
-      <c r="B91" s="39"/>
-      <c r="C91" s="39"/>
-      <c r="D91" s="40"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="42"/>
+      <c r="C91" s="42"/>
+      <c r="D91" s="43"/>
       <c r="E91" s="13" t="s">
         <v>54</v>
       </c>
@@ -5172,11 +5226,11 @@
       <c r="I91" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="K91" s="34"/>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
+      <c r="K91" s="32"/>
+      <c r="L91" s="32"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="32"/>
       <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
@@ -5205,12 +5259,12 @@
       <c r="I93" s="3"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="B94" s="36"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="37"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="40"/>
       <c r="E94" s="17" t="s">
         <v>56</v>
       </c>
@@ -5228,10 +5282,10 @@
       </c>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A95" s="38"/>
-      <c r="B95" s="39"/>
-      <c r="C95" s="39"/>
-      <c r="D95" s="40"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="42"/>
+      <c r="C95" s="42"/>
+      <c r="D95" s="43"/>
       <c r="E95" s="17" t="s">
         <v>57</v>
       </c>
@@ -5271,13 +5325,13 @@
       <c r="I97" s="3"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="28" t="s">
+      <c r="A98" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="37"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
       <c r="F98" s="2" t="s">
         <v>1</v>
       </c>
@@ -5292,11 +5346,11 @@
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="28"/>
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
+      <c r="A99" s="37"/>
+      <c r="B99" s="37"/>
+      <c r="C99" s="37"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="37"/>
       <c r="F99" s="6" t="s">
         <v>40</v>
       </c>
@@ -5333,13 +5387,13 @@
       <c r="I101" s="3"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="28" t="s">
+      <c r="A102" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
+      <c r="B102" s="37"/>
+      <c r="C102" s="37"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="37"/>
       <c r="F102" s="2" t="s">
         <v>1</v>
       </c>
@@ -5354,11 +5408,11 @@
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="28"/>
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="37"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="37"/>
       <c r="F103" s="6" t="s">
         <v>48</v>
       </c>
@@ -5395,11 +5449,11 @@
       <c r="I105" s="3"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
       <c r="F106" s="2" t="s">
         <v>1</v>
       </c>
@@ -5414,11 +5468,11 @@
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="37"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -5447,11 +5501,11 @@
       <c r="I109" s="3"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="37"/>
+      <c r="C110" s="37"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
       <c r="F110" s="2" t="s">
         <v>1</v>
       </c>
@@ -5466,11 +5520,11 @@
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="37"/>
+      <c r="C111" s="37"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="37"/>
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -5499,11 +5553,11 @@
       <c r="I113" s="3"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="28"/>
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="37"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="37"/>
       <c r="F114" s="2" t="s">
         <v>1</v>
       </c>
@@ -5518,11 +5572,11 @@
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="28"/>
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="37"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="37"/>
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -5551,11 +5605,11 @@
       <c r="I117" s="3"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="28"/>
-      <c r="B118" s="28"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
+      <c r="A118" s="37"/>
+      <c r="B118" s="37"/>
+      <c r="C118" s="37"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="37"/>
       <c r="F118" s="2" t="s">
         <v>1</v>
       </c>
@@ -5570,11 +5624,11 @@
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="28"/>
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
+      <c r="A119" s="37"/>
+      <c r="B119" s="37"/>
+      <c r="C119" s="37"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="37"/>
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -5868,28 +5922,26 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="A43:D44"/>
-    <mergeCell ref="A47:D48"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="J43:M44"/>
-    <mergeCell ref="J47:M48"/>
-    <mergeCell ref="J51:M52"/>
-    <mergeCell ref="J55:M56"/>
-    <mergeCell ref="J39:M40"/>
-    <mergeCell ref="A19:D20"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="A31:D32"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="A1:R4"/>
-    <mergeCell ref="A9:R10"/>
-    <mergeCell ref="A11:R12"/>
-    <mergeCell ref="A13:I14"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="J13:R14"/>
-    <mergeCell ref="J23:M24"/>
+    <mergeCell ref="U44:X45"/>
+    <mergeCell ref="U48:X49"/>
+    <mergeCell ref="U52:X53"/>
+    <mergeCell ref="U56:X57"/>
+    <mergeCell ref="U24:X25"/>
+    <mergeCell ref="U28:X29"/>
+    <mergeCell ref="U32:X33"/>
+    <mergeCell ref="U36:X37"/>
+    <mergeCell ref="U40:X41"/>
+    <mergeCell ref="U9:AC10"/>
+    <mergeCell ref="U11:AC11"/>
+    <mergeCell ref="U12:X13"/>
+    <mergeCell ref="U16:X17"/>
+    <mergeCell ref="U20:X21"/>
+    <mergeCell ref="K90:O91"/>
+    <mergeCell ref="A71:I72"/>
+    <mergeCell ref="J19:M20"/>
+    <mergeCell ref="A15:D16"/>
+    <mergeCell ref="J15:M16"/>
+    <mergeCell ref="A82:E83"/>
     <mergeCell ref="A118:E119"/>
     <mergeCell ref="A86:E87"/>
     <mergeCell ref="A73:I73"/>
@@ -5902,28 +5954,30 @@
     <mergeCell ref="A98:E99"/>
     <mergeCell ref="A90:D91"/>
     <mergeCell ref="A94:D95"/>
+    <mergeCell ref="A1:R4"/>
+    <mergeCell ref="A9:R10"/>
+    <mergeCell ref="A11:R12"/>
+    <mergeCell ref="A13:I14"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="J13:R14"/>
+    <mergeCell ref="J23:M24"/>
+    <mergeCell ref="J39:M40"/>
+    <mergeCell ref="A19:D20"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="A27:D28"/>
+    <mergeCell ref="A31:D32"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="A39:D40"/>
     <mergeCell ref="J31:M32"/>
     <mergeCell ref="J35:M36"/>
-    <mergeCell ref="K90:O91"/>
-    <mergeCell ref="A71:I72"/>
-    <mergeCell ref="J19:M20"/>
-    <mergeCell ref="A15:D16"/>
-    <mergeCell ref="J15:M16"/>
-    <mergeCell ref="A82:E83"/>
-    <mergeCell ref="U9:AC10"/>
-    <mergeCell ref="U11:AC11"/>
-    <mergeCell ref="U12:X13"/>
-    <mergeCell ref="U16:X17"/>
-    <mergeCell ref="U20:X21"/>
-    <mergeCell ref="U44:X45"/>
-    <mergeCell ref="U48:X49"/>
-    <mergeCell ref="U52:X53"/>
-    <mergeCell ref="U56:X57"/>
-    <mergeCell ref="U24:X25"/>
-    <mergeCell ref="U28:X29"/>
-    <mergeCell ref="U32:X33"/>
-    <mergeCell ref="U36:X37"/>
-    <mergeCell ref="U40:X41"/>
+    <mergeCell ref="A43:D44"/>
+    <mergeCell ref="A47:D48"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="J43:M44"/>
+    <mergeCell ref="J47:M48"/>
+    <mergeCell ref="J51:M52"/>
+    <mergeCell ref="J55:M56"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
